--- a/summary/izin-edar-ongoing-2021-12.xlsx
+++ b/summary/izin-edar-ongoing-2021-12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>kode pengajuan</t>
   </si>
@@ -64,6 +64,15 @@
     <t/>
   </si>
   <si>
+    <t>Wed Dec 29 2021 16:38:51 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Tue Jan 04 2022 21:44:34 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>[object Object]</t>
+  </si>
+  <si>
     <t>permohonan/39/izin_edar</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>hmm</t>
   </si>
   <si>
+    <t>Fri Dec 31 2021 07:34:58 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>pengalihan/36/izin_edar</t>
   </si>
   <si>
@@ -94,6 +106,12 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>Wed Dec 29 2021 10:33:31 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Sun Jan 09 2022 13:24:16 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>perpanjangan/34/izin_edar</t>
   </si>
   <si>
@@ -109,7 +127,13 @@
     <t>Box pallette</t>
   </si>
   <si>
-    <t>aden2@gmail.com</t>
+    <t>aden gumilang</t>
+  </si>
+  <si>
+    <t>Tue Dec 28 2021 01:09:43 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Wed Dec 29 2021 08:14:11 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
     <t>pengalihan/32/izin_edar</t>
@@ -124,6 +148,9 @@
     <t>xv</t>
   </si>
   <si>
+    <t>Tue Dec 28 2021 04:06:09 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>pengalihan/30/izin_edar</t>
   </si>
   <si>
@@ -139,9 +166,18 @@
     <t>PLASTIK</t>
   </si>
   <si>
+    <t>Tue Dec 28 2021 01:08:59 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>pengalihan/29/izin_edar</t>
   </si>
   <si>
+    <t>Mon Dec 27 2021 10:16:49 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Tue Dec 28 2021 13:02:44 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/27/izin_edar</t>
   </si>
   <si>
@@ -151,6 +187,12 @@
     <t>Thu Dec 24 2026 12:58:27 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
+    <t>Wed Dec 22 2021 06:11:57 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Fri Mar 18 2022 14:52:30 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/25/izin_edar</t>
   </si>
   <si>
@@ -163,13 +205,25 @@
     <t>Karton</t>
   </si>
   <si>
+    <t>Wed Dec 22 2021 02:48:49 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Fri Dec 24 2021 06:25:32 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>perubahan/23/izin_edar</t>
   </si>
   <si>
     <t>PERUBAHAN</t>
   </si>
   <si>
-    <t>dep@gmail.com,aden@gmail.com,adens@gmail.com,yugoauditor@gmail.com</t>
+    <t>aden commi,adens@gmail.com,depi pamela,yugo yahut</t>
+  </si>
+  <si>
+    <t>Tue Dec 21 2021 04:49:16 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Sat Jan 22 2022 10:07:09 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
     <t>pengalihan/20/izin_edar</t>
@@ -178,6 +232,12 @@
     <t>Menunggu Pembayaran PNBP</t>
   </si>
   <si>
+    <t>Wed Dec 15 2021 14:07:11 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Wed Feb 16 2022 10:13:37 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>perubahan/17/izin_edar</t>
   </si>
   <si>
@@ -193,6 +253,12 @@
     <t>Thu Dec 24 2026 12:57:54 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
+    <t>Wed Dec 15 2021 00:33:04 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Fri Dec 24 2021 07:35:51 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>perpanjangan/16/izin_edar</t>
   </si>
   <si>
@@ -205,7 +271,37 @@
     <t>zdd</t>
   </si>
   <si>
+    <t>Wed Feb 16 2022 10:16:54 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>permohonan/15/izin_edar</t>
+  </si>
+  <si>
+    <t>wingki wingki</t>
+  </si>
+  <si>
+    <t>Kamerun</t>
+  </si>
+  <si>
+    <t>mcvl</t>
+  </si>
+  <si>
+    <t>lkl</t>
+  </si>
+  <si>
+    <t>I-202203221955077246985</t>
+  </si>
+  <si>
+    <t>Mon Mar 22 2027 19:50:42 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Mon Apr 04 2022 15:41:40 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>perubahan/14/izin_edar</t>
+  </si>
+  <si>
+    <t>Sun Dec 12 2021 04:26:50 GMT+0800 (Taipei Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -245,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -286,7 +382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
@@ -320,13 +416,22 @@
       <c r="K2" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>13</v>
@@ -355,19 +460,28 @@
       <c r="K3" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>16</v>
@@ -379,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>16</v>
@@ -390,10 +504,19 @@
       <c r="K4" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>12</v>
@@ -402,124 +525,151 @@
         <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>16</v>
@@ -530,19 +680,28 @@
       <c r="K8" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>15</v>
@@ -565,13 +724,22 @@
       <c r="K9" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>13</v>
@@ -595,18 +763,27 @@
         <v>16</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>57</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>13</v>
@@ -615,200 +792,298 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="I12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>15</v>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/summary/izin-edar-ongoing-2021-12.xlsx
+++ b/summary/izin-edar-ongoing-2021-12.xlsx
@@ -341,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -382,7 +382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
@@ -423,10 +423,13 @@
         <v>18</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="0" t="s">
         <v>20</v>
       </c>
@@ -467,10 +470,13 @@
         <v>17</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="0" t="s">
         <v>22</v>
       </c>
@@ -511,10 +517,13 @@
         <v>26</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
@@ -555,10 +564,13 @@
         <v>32</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="0" t="s">
         <v>33</v>
       </c>
@@ -599,10 +611,13 @@
         <v>40</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="0" t="s">
         <v>41</v>
       </c>
@@ -643,10 +658,13 @@
         <v>45</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="0" t="s">
         <v>46</v>
       </c>
@@ -687,10 +705,13 @@
         <v>51</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="0" t="s">
         <v>52</v>
       </c>
@@ -731,10 +752,13 @@
         <v>54</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="0" t="s">
         <v>55</v>
       </c>
@@ -775,10 +799,13 @@
         <v>59</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="0" t="s">
         <v>60</v>
       </c>
@@ -819,10 +846,13 @@
         <v>65</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="0" t="s">
         <v>66</v>
       </c>
@@ -863,10 +893,13 @@
         <v>70</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="0" t="s">
         <v>71</v>
       </c>
@@ -907,10 +940,13 @@
         <v>74</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="0" t="s">
         <v>75</v>
       </c>
@@ -951,10 +987,13 @@
         <v>81</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="0" t="s">
         <v>82</v>
       </c>
@@ -995,10 +1034,13 @@
         <v>86</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="0" t="s">
         <v>87</v>
       </c>
@@ -1039,10 +1081,13 @@
         <v>94</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="0" t="s">
         <v>95</v>
       </c>
@@ -1083,6 +1128,9 @@
         <v>96</v>
       </c>
       <c r="N17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>19</v>
       </c>
     </row>
